--- a/Scheduler/investment_company_announcement/2023Q1_investment_company_announcement.xlsx
+++ b/Scheduler/investment_company_announcement/2023Q1_investment_company_announcement.xlsx
@@ -31,7 +31,7 @@
     <t>20230331</t>
   </si>
   <si>
-    <t>757.9</t>
+    <t>790.1</t>
   </si>
   <si>
     <t>N</t>
@@ -40,13 +40,13 @@
     <t>DS투자증권</t>
   </si>
   <si>
-    <t>412.2</t>
+    <t>529.5</t>
   </si>
   <si>
     <t>IBK투자증권</t>
   </si>
   <si>
-    <t>564.7</t>
+    <t>637.6</t>
   </si>
   <si>
     <t>Y</t>
@@ -55,340 +55,349 @@
     <t>KB증권</t>
   </si>
   <si>
-    <t>637.6</t>
+    <t>703.4</t>
   </si>
   <si>
     <t>KR투자증권</t>
   </si>
   <si>
-    <t>139.6</t>
+    <t>594.7</t>
   </si>
   <si>
     <t>NH투자증권</t>
   </si>
   <si>
-    <t>567.9</t>
+    <t>589.6</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>797.6</t>
+    <t>722.7</t>
   </si>
   <si>
     <t>UBS증권</t>
   </si>
   <si>
-    <t>107.3</t>
+    <t>107.1</t>
   </si>
   <si>
     <t>골드만삭스증권</t>
   </si>
   <si>
-    <t>127.4</t>
+    <t>122.5</t>
   </si>
   <si>
     <t>교보증권</t>
   </si>
   <si>
-    <t>746.3</t>
+    <t>731.2</t>
   </si>
   <si>
     <t>나틱시스증권 서울지점</t>
   </si>
   <si>
+    <t>111.1</t>
+  </si>
+  <si>
     <t>넥스트증권</t>
   </si>
   <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>노무라금융투자</t>
+  </si>
+  <si>
+    <t>559.3</t>
+  </si>
+  <si>
+    <t>다올투자증권</t>
+  </si>
+  <si>
+    <t>511.1</t>
+  </si>
+  <si>
+    <t>다이와증권캐피탈마켓코리아</t>
+  </si>
+  <si>
+    <t>180.3</t>
+  </si>
+  <si>
+    <t>대신증권</t>
+  </si>
+  <si>
+    <t>550.5</t>
+  </si>
+  <si>
+    <t>도이치증권</t>
+  </si>
+  <si>
+    <t>133.2</t>
+  </si>
+  <si>
+    <t>리딩투자증권</t>
+  </si>
+  <si>
     <t>138.2</t>
   </si>
   <si>
-    <t>노무라금융투자</t>
-  </si>
-  <si>
-    <t>887.2</t>
-  </si>
-  <si>
-    <t>다올투자증권</t>
-  </si>
-  <si>
-    <t>583.3</t>
-  </si>
-  <si>
-    <t>다이와증권캐피탈마켓코리아</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>대신증권</t>
-  </si>
-  <si>
-    <t>547.5</t>
-  </si>
-  <si>
-    <t>도이치증권</t>
-  </si>
-  <si>
-    <t>122.1</t>
-  </si>
-  <si>
-    <t>리딩투자증권</t>
-  </si>
-  <si>
-    <t>208.4</t>
-  </si>
-  <si>
     <t>맥쿼리증권</t>
   </si>
   <si>
-    <t>159.8</t>
+    <t>164.8</t>
   </si>
   <si>
     <t>메리츠증권</t>
   </si>
   <si>
-    <t>781.2</t>
+    <t>756.7</t>
   </si>
   <si>
     <t>메릴린치증권</t>
   </si>
   <si>
-    <t>110.2</t>
+    <t>111.2</t>
   </si>
   <si>
     <t>모건스탠리증권</t>
   </si>
   <si>
+    <t>112.7</t>
+  </si>
+  <si>
     <t>미래에셋증권</t>
   </si>
   <si>
-    <t>649.9</t>
+    <t>662.1</t>
   </si>
   <si>
     <t>미즈호증권</t>
   </si>
   <si>
-    <t>110.7</t>
+    <t>113.1</t>
   </si>
   <si>
     <t>부국증권</t>
   </si>
   <si>
-    <t>201.1</t>
+    <t>659</t>
   </si>
   <si>
     <t>비엔케이투자증권</t>
   </si>
   <si>
-    <t>306.8</t>
+    <t>339.1</t>
   </si>
   <si>
     <t>비엔피파리바증권</t>
   </si>
   <si>
-    <t>103.5</t>
+    <t>102.7</t>
   </si>
   <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>651.1</t>
+    <t>678</t>
   </si>
   <si>
     <t>상상인증권</t>
   </si>
   <si>
-    <t>208.2</t>
+    <t>488.3</t>
   </si>
   <si>
     <t>신영증권</t>
   </si>
   <si>
-    <t>791.4</t>
+    <t>722.6</t>
   </si>
   <si>
     <t>신한투자증권</t>
   </si>
   <si>
-    <t>694</t>
+    <t>750.5</t>
   </si>
   <si>
     <t>씨엘에스에이코리아증권</t>
   </si>
   <si>
-    <t>110</t>
+    <t>109.1</t>
   </si>
   <si>
     <t>씨엠에스증권 한국</t>
   </si>
   <si>
-    <t>102.5</t>
+    <t>112.2</t>
   </si>
   <si>
     <t>씨지에스 인터내셔널증권 홍콩 한국지점</t>
   </si>
   <si>
-    <t>111.9</t>
+    <t>110.1</t>
   </si>
   <si>
     <t>씨티그룹글로벌마켓증권</t>
   </si>
   <si>
-    <t>108.7</t>
+    <t>124</t>
   </si>
   <si>
     <t>아이엔지증권 서울지점</t>
   </si>
   <si>
-    <t>100.8</t>
+    <t>101</t>
   </si>
   <si>
     <t>아이엠증권</t>
   </si>
   <si>
-    <t>786.8</t>
+    <t>806.1</t>
   </si>
   <si>
     <t>엘에스증권</t>
   </si>
   <si>
-    <t>481.9</t>
+    <t>548.1</t>
   </si>
   <si>
     <t>우리투자증권(구.포스증권)</t>
   </si>
   <si>
-    <t>111.4</t>
+    <t>104.6</t>
   </si>
   <si>
     <t>유안타증권</t>
   </si>
   <si>
-    <t>679.1</t>
+    <t>676.4</t>
   </si>
   <si>
     <t>유진투자증권</t>
   </si>
   <si>
-    <t>707.2</t>
+    <t>757.6</t>
   </si>
   <si>
     <t>유화증권</t>
   </si>
   <si>
-    <t>129.8</t>
+    <t>129.7</t>
   </si>
   <si>
     <t>제이피모간증권</t>
   </si>
   <si>
-    <t>112.4</t>
+    <t>114.5</t>
   </si>
   <si>
     <t>카카오페이증권</t>
   </si>
   <si>
-    <t>101.4</t>
+    <t>102.1</t>
   </si>
   <si>
     <t>케이아이디비채권중개</t>
   </si>
   <si>
-    <t>110.3</t>
+    <t>113.7</t>
   </si>
   <si>
     <t>케이프투자증권</t>
   </si>
   <si>
-    <t>790.7</t>
+    <t>834.1</t>
   </si>
   <si>
     <t>코리아에셋투자증권</t>
   </si>
   <si>
-    <t>524.8</t>
+    <t>258.3</t>
   </si>
   <si>
     <t>크레디 아그리콜 아시아 증권 서울지점</t>
   </si>
   <si>
+    <t>110.5</t>
+  </si>
+  <si>
     <t>크레디트스위스증권</t>
   </si>
   <si>
-    <t>105.3</t>
+    <t>105.4</t>
   </si>
   <si>
     <t>키움증권</t>
   </si>
   <si>
-    <t>722</t>
+    <t>761</t>
   </si>
   <si>
     <t>토스증권</t>
   </si>
   <si>
-    <t>216.3</t>
+    <t>382.1</t>
   </si>
   <si>
     <t>하나증권</t>
   </si>
   <si>
-    <t>652.8</t>
+    <t>662.2</t>
   </si>
   <si>
     <t>한국스탠다드차타드증권</t>
   </si>
   <si>
-    <t>104.4</t>
+    <t>105.7</t>
   </si>
   <si>
     <t>한국아이엠씨증권</t>
   </si>
   <si>
-    <t>130.5</t>
+    <t>124.7</t>
   </si>
   <si>
     <t>한국에스지증권</t>
   </si>
   <si>
-    <t>322.9</t>
+    <t>293.7</t>
   </si>
   <si>
     <t>한국투자증권</t>
   </si>
   <si>
-    <t>705.7</t>
+    <t>677.1</t>
   </si>
   <si>
     <t>한양증권</t>
   </si>
   <si>
-    <t>307</t>
+    <t>709</t>
   </si>
   <si>
     <t>한화투자증권</t>
   </si>
   <si>
-    <t>657.2</t>
+    <t>723.8</t>
   </si>
   <si>
     <t>현대차증권</t>
   </si>
   <si>
-    <t>759.3</t>
+    <t>828</t>
   </si>
   <si>
     <t>홍콩상하이증권</t>
   </si>
   <si>
-    <t>128.6</t>
+    <t>124.6</t>
   </si>
   <si>
     <t>흥국증권</t>
   </si>
   <si>
-    <t>173.1</t>
+    <t>253.2</t>
   </si>
 </sst>
 </file>
@@ -599,19 +608,22 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -619,13 +631,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -633,13 +645,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -647,13 +659,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -661,13 +673,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -675,13 +687,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -689,13 +701,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -703,13 +715,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -717,13 +729,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -731,13 +743,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -745,13 +757,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -759,13 +771,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -773,13 +785,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -787,13 +799,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -801,13 +813,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -815,13 +827,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -829,13 +841,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -843,13 +855,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -857,13 +869,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -871,13 +883,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -885,13 +897,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -899,13 +911,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -913,13 +925,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -927,13 +939,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -941,13 +953,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -955,13 +967,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -969,13 +981,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -983,13 +995,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -997,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -1011,13 +1023,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1025,13 +1037,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1039,13 +1051,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1053,13 +1065,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1067,13 +1079,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1081,13 +1093,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1095,13 +1107,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -1109,13 +1121,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1123,13 +1135,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1137,13 +1149,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1151,13 +1163,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -1165,13 +1177,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1179,13 +1191,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1193,13 +1205,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1207,13 +1219,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1221,13 +1233,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1235,13 +1247,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1249,13 +1261,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -1263,13 +1275,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1277,13 +1289,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1291,13 +1303,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
